--- a/vaccine-2.xlsx
+++ b/vaccine-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rizkeesakundee/playground/exco-demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C53513-4E6C-5449-B4C8-A19C461780B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA2F460-ACA5-4D4D-B615-5174DFC0BB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19280" yWindow="11280" windowWidth="20640" windowHeight="10320" xr2:uid="{0631785E-A535-654A-B4C4-C951EC3B54D0}"/>
   </bookViews>
